--- a/Datos/Database by set/Set with text box/Xlsx sets/Mirrodin Besieged Promos (PMBS).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Mirrodin Besieged Promos (PMBS).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,224 +444,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Black Sun's Zenith</t>
+          <t>("Black Sun's Zenith", ['{X}{B}{B}', 'Sorcery', 'Put X -1/-1 counters on each creature. Shuffle Black Sun’s Zenith into its owner’s library.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{X}{B}{B}</t>
+          <t>('Glissa, the Traitor', ['{B}{G}{G}', 'Legendary Creature — Zombie Elf', 'First strike, deathtouch', 'Whenever a creature an opponent controls dies, you may return target artifact card from your graveyard to your hand.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Hero of Bladehold', ['{2}{W}{W}', 'Creature — Human Knight', 'Battle cry (Whenever this creature attacks, each other attacking creature gets +1/+0 until end of turn.)', 'Whenever Hero of Bladehold attacks, create two 1/1 white Soldier creature tokens that are tapped and attacking.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Put X -1/-1 counters on each creature. Shuffle Black Sun’s Zenith into its owner’s library.</t>
+          <t>('Mirran Crusader', ['{1}{W}{W}', 'Creature — Human Knight', 'Double strike, protection from black and from green', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Glissa, the Traitor</t>
+          <t>('Thopter Assembly', ['{6}', 'Artifact Creature — Thopter', 'Flying', 'At the beginning of your upkeep, if you control no Thopters other than Thopter Assembly, return Thopter Assembly to its owner’s hand and create five 1/1 colorless Thopter artifact creature tokens with flying.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{B}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Zombie Elf</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>First strike, deathtouch</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Whenever a creature an opponent controls dies, you may return target artifact card from your graveyard to your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Hero of Bladehold</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{2}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Creature — Human Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Battle cry (Whenever this creature attacks, each other attacking creature gets +1/+0 until end of turn.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Whenever Hero of Bladehold attacks, create two 1/1 white Soldier creature tokens that are tapped and attacking.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mirran Crusader</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{1}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Creature — Human Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Double strike, protection from black and from green</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Thopter Assembly</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{6}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Artifact Creature — Thopter</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, if you control no Thopters other than Thopter Assembly, return Thopter Assembly to its owner’s hand and create five 1/1 colorless Thopter artifact creature tokens with flying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Treasure Mage</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Creature — Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>When Treasure Mage enters the battlefield, you may search your library for an artifact card with converted mana cost 6 or greater, reveal it, put it into your hand, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Treasure Mage', ['{2}{U}', 'Creature — Human Wizard', 'When Treasure Mage enters the battlefield, you may search your library for an artifact card with converted mana cost 6 or greater, reveal it, put it into your hand, then shuffle your library.', '2/2'])</t>
         </is>
       </c>
     </row>
